--- a/data/user.xlsx
+++ b/data/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suggu/Documents/Assessment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDFEA897-7296-0848-A52A-8ABD9A81C3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE3F7BC-EA9A-D748-BC3B-FCF5F6912DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{EBBE96A9-99C9-964D-9E1D-1EB98E581BA5}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{EBBE96A9-99C9-964D-9E1D-1EB98E581BA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>124-768-3222</t>
   </si>
   <si>
-    <t>Ahmed Ali</t>
-  </si>
-  <si>
     <t>Abu Dhabi, UAE</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Employment</t>
+  </si>
+  <si>
+    <t>Ahmed Al Mansoori</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -546,81 +546,81 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
